--- a/results/I3_N5_M2_T30_C100_DepCentral_s2_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s2_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1572.329871836436</v>
+        <v>1287.706724749106</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.00599980354309082</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.84647314566407</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.77153722745032</v>
+        <v>5.79934149303875</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.074935918213756</v>
+        <v>4.791701159296143</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1433.900000000008</v>
+        <v>956</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.28</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,61 +634,6 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.66483080554379</v>
+        <v>21.95858503259002</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>21.29375422704624</v>
       </c>
     </row>
     <row r="5">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>7.00687454322409</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.43350262360388</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.95023406060615</v>
+        <v>27.09309572008499</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1191,216 +1136,6 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1503,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>148.1</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -1514,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>138.7100000000004</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
@@ -1525,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>145.0100000000004</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
@@ -1536,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>144.0450000000004</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11">
@@ -1547,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>145.7200000000005</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12">
@@ -1558,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4450000000006</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -1569,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -1580,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -1591,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -1602,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -1613,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -1624,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999994</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -1635,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1646,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1657,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999999997</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -1668,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1679,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1690,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1701,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1712,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -1723,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>200.3350000000012</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -1734,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>183.0600000000012</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -1745,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>189.5350000000012</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1756,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>189.8300000000012</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -1767,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>196.5200000000012</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1778,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3399999999997</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1789,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2049999999994</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -1800,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.4299999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1811,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1822,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.9949999999997</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -1833,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>200.3350000000012</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38">
@@ -1844,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>183.0600000000012</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39">
@@ -1855,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>189.5350000000012</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40">
@@ -1866,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>189.8300000000012</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41">
@@ -1877,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>196.5200000000012</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>47.33999999999972</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1935,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.20499999999936</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1946,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>40.42999999999935</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1957,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>57.69999999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1968,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>52.99499999999972</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1979,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>100.3350000000012</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1990,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>83.06000000000117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -2001,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>89.53500000000116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -2012,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>89.83000000000118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -2023,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.5200000000012</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2125,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2136,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2147,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2158,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2169,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2235,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2246,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -2257,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -2268,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -2279,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -2348,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2538,116 +2273,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
